--- a/biology/Médecine/Nadine_Dobrovolskaïa-Zavadskaïa/Nadine_Dobrovolskaïa-Zavadskaïa.xlsx
+++ b/biology/Médecine/Nadine_Dobrovolskaïa-Zavadskaïa/Nadine_Dobrovolskaïa-Zavadskaïa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nadine_Dobrovolska%C3%AFa-Zavadska%C3%AFa</t>
+          <t>Nadine_Dobrovolskaïa-Zavadskaïa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nadine Dobrovolskaïa-Zavadskaïa (ukrainien : Надія Олексіївна Добровольська-Завадська), née le 25 septembre 1878 à Kiev en l'Empire russe et morte le 31 octobre 1954 à Milan en Italie, est une chirurgienne, généticienne et chercheuse  ukraino-russo-française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nadine_Dobrovolska%C3%AFa-Zavadska%C3%AFa</t>
+          <t>Nadine_Dobrovolskaïa-Zavadskaïa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nadine Dobrovolskaïa-Zavadskaïa est née à Kiev et fait ses études à Saint-Pétersbourg. Elle est la première femme de l'Empire Russe à devenir professeure de chirurgie, en 1918. Elle prend part à la guerre civile russe puis fuit vers l'Égypte, avant de s'installer à Paris.
-Elle mène durant toute sa carrière des recherches en génétique et oncologie et découvre le gène Brachyury (en) chez la souris[1]. Elle créé la souche de souris RIII qui servira plus tard à découvrir le virus de la tumeur mammaire de la souris (en) (MMTV)[2].
+Elle mène durant toute sa carrière des recherches en génétique et oncologie et découvre le gène Brachyury (en) chez la souris. Elle créé la souche de souris RIII qui servira plus tard à découvrir le virus de la tumeur mammaire de la souris (en) (MMTV).
 </t>
         </is>
       </c>
